--- a/biology/Botanique/Fuchsia_de_Magellan/Fuchsia_de_Magellan.xlsx
+++ b/biology/Botanique/Fuchsia_de_Magellan/Fuchsia_de_Magellan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuchsia magellanica · Chilco
 Le fuchsia de Magellan (Fuchsia magellanica), ou chilco est une plante arbustive sud-américaine du genre des fuchsias et de la famille des onagracées  (ou œnothéracées). Sa floraison est remarquable, avec de nombreuses variétés horticoles. Dans son milieu naturel, il croît en bordure des cours d'eau. Ses baies sont comestibles. Ses autres noms vernaculaires sud-américains sont : aljaba, thilco, chilca, chilcón, jazmín del papa (jasmin du pape), palo blanco (bâton blanc), pendientes de la reina (pendentifs de la reine), ou tilca. Le mot chilco provient du mapudungún chillko (/tʃiʎko/), ou chilko (/tʃilko/) qui signifie plein d'eau.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste à feuillage persistant d'environ 2 à 4 mètres de haut, avec des branches fines qui partent de la base du tronc. Ses feuilles lancéolées ont un pétiole rougeâtre et sont groupées en verticilles. Ses fleurs sont tétramères, avec de grands sépales rouges, ouverts, qui dépassent en longueur les petits pétales violets. Il y a 8 étamines d'environ 2 cm, également rougeâtres ou violettes. Le fruit est une baie comestible qui provient d'un ovaire inférieur.
 La variété molinae (également appelée de manière fautive alba) a des fleurs aux sépales blancs et aux pétales blanc rosé. Elle est originaire de l'île de Chiloé. Elle a été découverte dans la commune de Castro.
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du sud du Chili et de l'Argentine jusqu'à la Terre de Feu, le fuchsia de Magellan a été introduit en Europe au XIXe siècle. Contrairement  à la grande majorité des fuschia et en raison de ses origines, il résiste bien à  des gels modérés.
 Dans les régions tropicales où il a été aussi introduit (comme à l'île de la Réunion), c'est une espèce exotique envahissante, capable de recouvrir la végétation indigène des forêts naturelles et de l'étouffer
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,9 +621,11 @@
           <t>Dénominations locales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>chilco de Chile (chilco du Chili), melindres, palo blanco de Chile (bâton blanc du Chili), palo mato de Chile, thilco de Chile (thilco du Chili), tilco de Chile (tico du Chili)[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>chilco de Chile (chilco du Chili), melindres, palo blanco de Chile (bâton blanc du Chili), palo mato de Chile, thilco de Chile (thilco du Chili), tilco de Chile (tico du Chili).</t>
         </is>
       </c>
     </row>
